--- a/CashFlow/AZO_cashflow.xlsx
+++ b/CashFlow/AZO_cashflow.xlsx
@@ -74,9 +74,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>13924950000.0</v>
+        <v>-151482000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>9274900000.0</v>
+        <v>4394314000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>9252900000.0</v>
+        <v>4390032000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4646694000.0</v>
+        <v>4265716000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4550480000.0</v>
+        <v>4169502000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>4443039000.0</v>
+        <v>-291989000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-359899000.0</v>
@@ -906,22 +906,22 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>15803336000.0</v>
+        <v>741100000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>10466672000.0</v>
+        <v>5386833000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10054672000.0</v>
+        <v>5288861000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4946942000.0</v>
+        <v>4826907000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5137153000.0</v>
+        <v>5017118000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>5125477000.0</v>
+        <v>213778000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>444684000.0</v>
